--- a/stroop colors.xlsx
+++ b/stroop colors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atwa2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atwa2\Desktop\STROOP TASK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F46F9C-D985-45BD-A711-A6A74EF4EF13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FDCE33-1A4D-4648-873D-3CDB82A562FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>word</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>yellow</t>
+  </si>
+  <si>
+    <t>HHHHHH</t>
+  </si>
+  <si>
+    <t>AAAAAA</t>
   </si>
 </sst>
 </file>
@@ -390,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,6 +530,28 @@
         <v>9</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/stroop colors.xlsx
+++ b/stroop colors.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atwa2\Desktop\STROOP TASK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FDCE33-1A4D-4648-873D-3CDB82A562FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2551C616-86C1-4591-8660-965560DBF75A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>zgodny</t>
   </si>
   <si>
-    <t>correctANS</t>
-  </si>
-  <si>
     <t>z</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>AAAAAA</t>
+  </si>
+  <si>
+    <t>correctresponse</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,7 +415,7 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -423,13 +423,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -437,13 +437,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -451,13 +451,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -465,13 +465,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -479,13 +479,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -493,13 +493,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -507,13 +507,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -521,35 +521,35 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
